--- a/od_demand.xlsx
+++ b/od_demand.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>166</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>943</v>
+        <v>957</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3021</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9841</v>
+        <v>14096</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21209</v>
+        <v>49841</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29564</v>
+        <v>133857</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35834</v>
+        <v>265188</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34747</v>
+        <v>208692</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23914</v>
+        <v>69506</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18375</v>
+        <v>31592</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15442</v>
+        <v>23921</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15042</v>
+        <v>102380</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15268</v>
+        <v>105904</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13821</v>
+        <v>123157</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11247</v>
+        <v>178291</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8717</v>
+        <v>226572</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6101</v>
+        <v>199901</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4111</v>
+        <v>128416</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2140</v>
+        <v>89067</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2397</v>
+        <v>67722</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2968</v>
+        <v>52021</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2893</v>
+        <v>33900</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1338</v>
+        <v>19588</v>
       </c>
     </row>
   </sheetData>
